--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155875.3289828718</v>
+        <v>160491.4482136796</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12886.27600637434</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="C6" t="n">
-        <v>-12886.27600637434</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="D6" t="n">
-        <v>-12886.27600637434</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="E6" t="n">
-        <v>-81400.7551843414</v>
+        <v>-80950.2821799641</v>
       </c>
       <c r="F6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="G6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="H6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="I6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="J6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="K6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="L6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="M6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="N6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="O6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
       <c r="P6" t="n">
-        <v>51699.24481565865</v>
+        <v>52149.7178200359</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160491.4482136796</v>
+        <v>174217.8063510977</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26334,7 @@
         <v>97172.46592738405</v>
       </c>
       <c r="I2" t="n">
-        <v>97172.46592738405</v>
+        <v>97172.46592738402</v>
       </c>
       <c r="J2" t="n">
         <v>97172.46592738405</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
         <v>41411.13600233983</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="E6" t="n">
-        <v>-80950.2821799641</v>
+        <v>-80950.28217996415</v>
       </c>
       <c r="F6" t="n">
         <v>52149.7178200359</v>
@@ -26540,7 +26542,7 @@
         <v>52149.7178200359</v>
       </c>
       <c r="I6" t="n">
-        <v>52149.7178200359</v>
+        <v>52149.71782003587</v>
       </c>
       <c r="J6" t="n">
         <v>52149.7178200359</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174217.8063510977</v>
+        <v>49107.90755362102</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172942</v>
       </c>
       <c r="C2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="D2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="E2" t="n">
         <v>97172.46592738405</v>
@@ -26334,7 +26334,7 @@
         <v>97172.46592738405</v>
       </c>
       <c r="I2" t="n">
-        <v>97172.46592738402</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="J2" t="n">
         <v>97172.46592738405</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="E6" t="n">
-        <v>-80950.28217996415</v>
+        <v>-95760.29901907805</v>
       </c>
       <c r="F6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="G6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="H6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="I6" t="n">
-        <v>52149.71782003587</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="J6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="K6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="L6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="M6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="N6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="O6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
       <c r="P6" t="n">
-        <v>52149.7178200359</v>
+        <v>37339.70098092199</v>
       </c>
     </row>
   </sheetData>
